--- a/biology/Botanique/Groenlandia_densa/Groenlandia_densa.xlsx
+++ b/biology/Botanique/Groenlandia_densa/Groenlandia_densa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potamot dense, Groenlandia serré
-Groenlandia densa (L.) Fourr., de noms communs Potamot dense, Groenlandia serré[4], est une espèce de plantes subaquatiques (hydrophytes) et vivaces des mares, étangs et cours d'eau de l'hémisphère nord, appartenant à la famille des Potamogetonaceae, plutôt caractéristique de communautés rhéophiles et de milieux eutrophes[5].
+Groenlandia densa (L.) Fourr., de noms communs Potamot dense, Groenlandia serré, est une espèce de plantes subaquatiques (hydrophytes) et vivaces des mares, étangs et cours d'eau de l'hémisphère nord, appartenant à la famille des Potamogetonaceae, plutôt caractéristique de communautés rhéophiles et de milieux eutrophes.
 Synonymes : Potamogeton densus ou Potamogeton oppositifolius
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante a une large aire de répartition dans l'hémisphère nord où elle et naturellement présente en Europe, en Asie de l'Ouest et en Afrique du Nord, mais elle tend maintenant aussi à se propager en Amérique et en Australie à la suite d'introductions.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce qui porte le nom d'« herbe de fontaine » en néerlandais vit dans les eaux courantes ou stagnantes, claires et plutôt riches en éléments nutritifs, habituellement à faible profondeur et affleurant souvent en surface.
 </t>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante aquatique submergée est vivace, glabre, rameuse-dichotome, à tiges cylindriques.
 Feuilles : elles sont systématiquement opposées, membraneuses, lancéolées-aiguës, élargies-embrassantes à la base. Larges de 2 à 5 mm (3 – 15 mm selon d'autres sources) et longue de 10 à 40 mm, elles sont proches les unes des autres, souvent réfléchies et denticulées. Les feuilles ont 3 à 7 nervures longitudinales et souvent une marge légèrement ondulée. Leur pédoncule est court et recourbé en crochet naissant dans les dichotomies
@@ -610,11 +628,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante des mares, étangs, et plutôt des cours d'eau à courant modéré, qu'on trouve notamment dans toute la France (dans les milieux qui lui conviennent) et qui peut avoir une valeur bioindicatrice[6].
-Sa biomasse augmente du printemps à l'été, et peut fortement varier selon la qualité ou la perturbation du milieu aquatique[7]
-Comme de nombreuses autres espèces aquatiques cette espèce peut bioaccumuler des métaux lourds et métalloïdes toxiques et écotoxiques[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante des mares, étangs, et plutôt des cours d'eau à courant modéré, qu'on trouve notamment dans toute la France (dans les milieux qui lui conviennent) et qui peut avoir une valeur bioindicatrice.
+Sa biomasse augmente du printemps à l'été, et peut fortement varier selon la qualité ou la perturbation du milieu aquatique
+Comme de nombreuses autres espèces aquatiques cette espèce peut bioaccumuler des métaux lourds et métalloïdes toxiques et écotoxiques.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Nombre de Chromosomes :  2n = 30.
 </t>
@@ -674,10 +696,12 @@
           <t>Etat des populations, menaces, protection...</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est inscrite sur la liste rouge des espèces menacées aux Pays-Bas mais y est considérée comme stable ou en augmentation.
-Elle peut être victime de la pollution ou de l'introduction d'espèces devenues invasives hors de leur milieu naturel (ex : Elodea canadensis et Elodea nuttallii en France[5]).
+Elle peut être victime de la pollution ou de l'introduction d'espèces devenues invasives hors de leur milieu naturel (ex : Elodea canadensis et Elodea nuttallii en France).
 </t>
         </is>
       </c>
